--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,10 +707,14 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Fufu</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Zanec</t>
+        </is>
+      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>-</t>
@@ -837,8 +841,16 @@
           <t>2025-04-02T03:00:00</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Fufu</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Zanec</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr">
@@ -964,7 +976,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Fufu</t>
+        </is>
+      </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
@@ -984,6 +1000,132 @@
         </is>
       </c>
       <c r="AF4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>No Idea</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Reee</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>@Salzamt</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>What do I know</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Fishbowl</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>I don’t know</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2025-04-03T12:45:00</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>2025-04-03T13:00:00</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2025-04-03T13:30:00</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>2025-04-03T15:00:00</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AJ58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,155 +441,175 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>host</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>subtitle</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>abstract</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>recurring</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>passive</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>artist_specific</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>fursuiter_specific</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>noise_warning</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>lights_warning</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>anxiety_warning</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>nsfw</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>room_layout</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>required_equipment</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>private_equipment</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>technical_description</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Email address</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Main Host - Ticket Number</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Syncing - Preparation &amp; Teardown Time Considerations</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>setup_start</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>event_start</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>event_end</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>teardown_end</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
           <t>room</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>host</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>contact</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>subtitle</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>abstract</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>recurring</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>passive</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>artist_specific</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>fursuiter_specific</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>noise_warning</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>lights_warning</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>anxiety_warning</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>nsfw</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>room_layout</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>required_equipment</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>private_equipment</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>technical_description</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>setup_start</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>event_start</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>event_end</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>teardown_end</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Light Technician</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Video Technician</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Mobile Camera</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Audio Technician</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Audio</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Mic Wrangler</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Paw 1</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Paw 2</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Paw 3</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Paw 4</t>
         </is>
@@ -598,121 +618,109 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wruff Wruff</t>
+          <t>Femboy Meetup and Photoshoot</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>Nahalo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fufu</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>@musical_F</t>
-        </is>
-      </c>
+          <t>@Nahalo_noodle</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A dox’s life</t>
+          <t>A meetup for everyone who sees themselves as a femboy to make new like-minded friends</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>About the live of a dox</t>
+          <t xml:space="preserve">We will gather and have a few nice chats together before we will take some pictures together at the Venue. Fursuiters are welcome as well! </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A story about the dog-fox and his life</t>
+          <t xml:space="preserve">Passive, Anxiety-warning, Femboy clothing , but nothing too nsfw </t>
         </is>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
       <c r="O2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Theatre</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Microphone, Fans</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Dog-Fox</t>
-        </is>
-      </c>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
-          <t>A guy talking</t>
+          <t>No support needed, just a photographer that I will organize</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2025-04-01T10:00:00</t>
+          <t>ackerl1995@gmail.com</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2025-04-01T10:30:00</t>
+          <t>ticket_j4IZzhViwb</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-04-01T11:00:00</t>
+          <t xml:space="preserve">Not more than 5min </t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2025-04-01T11:10:00</t>
+          <t>2025-07-25T20:45:00</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2025-07-25T21:00:00</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2025-07-25T22:00:00</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2025-07-25T22:15</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Zanec</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -736,6 +744,26 @@
         </is>
       </c>
       <c r="AF2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -744,37 +772,33 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dance</t>
+          <t xml:space="preserve">Relaxing Cuddle Panel </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>Vex</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Someone</t>
+          <t>@Vex_Wusky</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>someone@gmail.com</t>
+          <t>with ambiant lights and sounds</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dance Dance Dance</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Have fun dancin’</t>
-        </is>
-      </c>
+          <t>Just cuddle and relax a bit!</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>This… is a dance</t>
+          <t>Fursuiter-specific</t>
         </is>
       </c>
       <c r="H3" t="b">
@@ -787,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -808,64 +832,96 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>DJ stuff</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>DJ booth</t>
-        </is>
-      </c>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
-          <t>DJ playing music, audience dancing</t>
+          <t>i would need audio and video for the panel (like last years cuddle panel) also air beds and pillows will be required again.  (some are stored in the con storage area if more are needed they will be bought by the convention)</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2025-04-01T20:00:00</t>
+          <t>a.toifl@awoostria.at</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2025-04-01T21:00:00</t>
+          <t>ticket_5WjlP7fkvt</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-04-02T02:00:00</t>
+          <t>around 20+ mins of prep</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2025-04-02T03:00:00</t>
+          <t>2025-07-24T21:30:00</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Fufu</t>
+          <t>2025-07-24T22:00:00</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Zanec</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+          <t>2025-07-25T00:00:00</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>2025-07-25T00:30:00</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="AE3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -874,37 +930,33 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nico</t>
+          <t>Who wants to be a Furry-Millionaire?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>Athrox</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nico</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>@Nico, nico@nico.co</t>
-        </is>
-      </c>
+          <t>@Athrox</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Nico Meetup</t>
+          <t>Come and test your knowledge about the deep Furry-Lore and win great prizes.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hang out with your name-fellas and enjoy the company, Nico.</t>
+          <t>Do you know where the first Furry-Con took place? Or which Sonas are the most popular? Or which Austrian Celebrity got an acting role in Zootopia? Then test your Knowledge about our community in my quiz. Answer all questions correctly and you might even win a prize...</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>We recently noticed, that there are surprisingly many Nicos. So we decided to organise a Nico-meetup where every Nico is welcome.</t>
+          <t>Anxiety-warning</t>
         </is>
       </c>
       <c r="H4" t="b">
@@ -933,57 +985,69 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Maybe many small CHAIR groups</t>
+          <t>Theater, If two High-Chairs could be provided, that would be nice too. But ultimately not necessary.</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Mics</t>
+          <t xml:space="preserve">Microphone(s), Paper &amp; Pencil, A clipboard would be much appreciated </t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Nico</t>
+          <t>Lenovo Legion Y530-15YICH</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>People meeting, maybe someone talking</t>
+          <t>Will need Volunteer to go through my presentation while I moderate. And maybe provide additional sound-effects, but I'll have to decide on that one yet.</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2025-04-01T11:45:00</t>
+          <t>benjaffery@live.at</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2025-04-01T12:00:00</t>
+          <t>ticket_SljYLZG462</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-04-01T13:00:00</t>
+          <t>Max. 8 minutes</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2025-04-01T13:05:00</t>
+          <t>2025-07-25T17:15:00</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2025-07-25T17:30:00</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Fufu</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+          <t>2025-07-25T19:30:00</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>2025-07-25T19:45:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>BAR</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>-</t>
@@ -1000,6 +1064,26 @@
         </is>
       </c>
       <c r="AF4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1008,45 +1092,45 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>No Idea</t>
+          <t>Tinkering projects Show and Tell</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>uvok</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Reee</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>@Salzamt</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>What do I know</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>mail: awoostria@uvokchee.de, @uvok_cheetah</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Do you like tinkering? Here you can present your projects and get to know other furs who also like to tinker. It doesn't matter whether you tinker with wood or do other handicrafts, electronics or IT.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Lights-warning, Anxiety-warning</t>
+        </is>
+      </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -1055,77 +1139,8196 @@
         <v>1</v>
       </c>
       <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Fish Bowl, chair circle, maybe?</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Power Strips</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>None? If any,  Lenovi IdeaPad Flex3 (hdmi)</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Attendees can present their projects. Which might include software. So various devices may be attached. 
+Some projects may need mains power, though that's probably not possible for self-built stuff because of liability? (At EAST last year we had a device that could cool down air to liquid). The majority of the projects, I guess, is gonna be battery powered electronics.</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>uvok.ch337ah@gmail.com</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>ticket_CJwmNWDQBz</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>up to 5 minutes</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>2025-07-25T14:00:00</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>2025-07-25T14:15:00</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2025-07-25T16:15:00</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>2025-07-25T16:30:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fight for your Souls</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>KanaMau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>@Volteer95 (Telegram)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>The Great Cultist Gameshow</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Come watch two teams of cultists prove their devotion in a series of minigames!</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Grand Speaker KanaMau hosts an exciting competition featuring a variety of challenges. Two teams of representatives of the Riftwalkers and the Society battle each other on stage for their very souls! (And collect soul energy for their cult.)
+Who will bring the glory of the rifts upon their brethren?</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Current plan is to have 1 fursuiter be part of each team. So fursuit support would be nice, but limited amount needed.</t>
+        </is>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Microphone(s), Cameras + Crew to help the audience see what's happening on stage via the big screens; Tablet for Kana; Bonus Points if Kana could also share his screen on the big screens (to show quiz questions and stuff); Tables and chairs for the contestants on stage</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Already mentioned in Equipment, but a camera/stage crew that shows the event on screens like opening&amp;closing would be great. Also if possible the possibility for Kana to share his screen from the tablet he'll be using as the host.
+In general the event will be a team vs team gameshow with various activity based minigames and quizzes.</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>m.hahn@awoostria.at</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>ticket_p2m3eS4oAB</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>at least 15min of setup time would be good</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>2025-07-25T13:30:00</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>2025-07-25T14:00:00</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2025-07-25T16:00:00</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>2025-07-25T16:15:00</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Furry Feud </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Takonan, Chrispy </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>@Takonan</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Furry Game Show </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Furry Game Show where we find out what the convention really thinks! </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>What does the con really think? In Furry Feud, contestants try to guess the most popular (and most questionable) survey answers from con-goers! Join us for the ultimate furry quiz experience!</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Anxiety-warning</t>
+        </is>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
         <v>1</v>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Fishbowl</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>I don’t know</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>2025-04-03T12:45:00</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>2025-04-03T13:00:00</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>2025-04-03T13:30:00</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>2025-04-03T15:00:00</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Theater, Cabaret</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Laptop, Microphone(s)</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Could provide own laptop (Lenovo Thinkpad) </t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moderator and contestants miked (depending on event size) and laptop projector to display questions and awnsers. </t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>takonanlp@gmail.com</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>ticket_mSkubY4G2P</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 minutes </t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>2025-07-26T10:45:00</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>2025-07-26T11:00:00</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2025-07-26T12:00:00</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>2025-07-26T12:15:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bonfire's Thoughts</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Seishin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>@The_Deer_Seishin</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>I’m The Deer Seishin and today I’m here as a musician for you! Music is a very common topic among us, we are pretty used to listening to music nowadays, but what makes a song so special? Why is “That” song so unique? Well I’m here to prove to you the power of music.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>I’m The Deer Seishin and today I’m here as a musician for you! Music is a very common topic among us, we are pretty used to listening to music nowadays, but what makes a song so special? Why is “That” song so unique? Well I’m here to prove to you the power of music.
+Through some music pills I will show you the real value of the “feeling” behind the notes, by playing some very significant flute pieces and I’ll try to recreate the spirit of a bonfire with the attendants who will participate in an interesting activity.
+In the end there will be something very special. I hope to see you there</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Passive, Night panel, I wish I could discuss with someone about this</t>
+        </is>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Microphone(s), Napkins</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'll be playing my flute sometimes and talking on a presentation. There will be an activity which involves the partecipants from their seats </t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>tommaso.miselli04@gmail.com</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>ticket_0wS4WYUP1y</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Max 10 mins I think</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>2025-07-26T19:45:00</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>2025-07-26T20:00:00</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2025-07-26T21:00:00</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>2025-07-26T21:15:00</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Trading Hub</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>@cremetorteee</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Trade and Swap Event</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A fun get-together to exchange and trade goodies such as merch, pins, keychains, artworks etc.! </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Welcome!
+Here you will find people who want to exchange their belongings with yours! 
+Love collecting keychains and want to trade for a new one? Have too many pins but want more posters? Fallen out of love with a fandom and want to swap merch? 
+Bring your items for others to see and have fun trading!</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Anxiety-warning</t>
+        </is>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>U-Shape</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>I do not need any technical support :)</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>schweiger.nadine@gmail.com</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>ticket_VHUsFT4yCS</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>If tables are arranged beforehand, set up and tear down should not take longer than 10 minutes each, as it mainly includes removing chairs and hanging up signs/posters</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>2025-07-27T12:45:00</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>2025-07-27T13:00:00</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2025-07-27T14:00:00</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2025-07-27T14:15:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Artshow Auction</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rox Butternut</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>@Vex_Wusky</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>We will auction off some of the Artworks of the Artshow!</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>core event</t>
+        </is>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>to showcase the art on the screens we need to take pictures of the artworks and hand them over to the stage crew</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>a.toifl@awoostria.at</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>ticket_5WjlP7fkvt</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>we will need some time to hand over the order of the artworks to the stage crew and set up the artworks themselves.</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>2025-07-26T19:30:00</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>2025-07-26T20:30:00</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2025-07-26T22:00:00</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>2025-07-26T22:15:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cartoon Furs Meet</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fabia Lupo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>@fabialupo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Because "Toon Life Rules"!</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>You love Cartoons? - Come and join this meetup. Bring your favorite cartoon plushies and/or figures. Fursuiters are welcome too!</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Artist-specific, Fursuiter-specific</t>
+        </is>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>U-Shape</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Flipchart, Paper &amp; Pencil</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>lisa02081994@gmail.com</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>ticket_piu3eS4oAB</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>10 minutes</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>2025-07-26T09:45:00</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>2025-07-26T10:00:00</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2025-07-26T11:30:00</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>2025-07-26T11:45:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Karaoke</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Birdy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>@funkbird</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>All you can howl!</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Awooooooooo... *inhales* woooooo!</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is the Karaoke Event. Come to the Gryphon and pick a song. The birb has thousands of songs in his library!
+Fursuiters are very welcome to sing! </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Noise-warning, Lights-warning, Night panel</t>
+        </is>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>I need a small mixing desk, powerful speakers with matching amplifiers, a 20" HDMI screen (as a display in front of the singers), and a very large TV or projector with screen (for the audience).</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>- A laptop PC with HDMI Output and Stereo Headphone jack Output for sound and lyrics
+- One Shure Beta 58 cordless microphone with Shure GLXD4+ Z4 Receiver ( XLR jack, 2.4 GHz / 5.8 GHz digital Dual Band, license free )
+- One Shure SM58 corded Microphone (XLR Jack), in case there is a second singer for some songs</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I suggest that the Awoostria Tech Crew provides the following things to me:
+- a mixing desk that can handle sound input from the one, better two, vocal microphone(s) that I bring along, and mix it with the music from my laptop PC
+- a smaller screen that we will place in front of the singer (we want to see peoples' faces, not their tails :))
+- a very large TV or a projector with a screen
+</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>funkbird@gmail.com</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>ticket_wFqCCyMAB5</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>I'd prefer to have 30 minutes for set-up and sound check, and can someone from Tech be there to put out any flames?</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>2025-07-26T21:00:00</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2025-07-26T21:30:00</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2025-07-27T00:30:00</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>2025-07-27T01:00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Making a Mystery</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Volteer, Cipher, and the story department crew</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>@Volteer95</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Insights Into Creating an Awoostria Story</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>The Awoostria story department shows the inner workings of their media/game production.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ever wondered what goes into making the convention's interactive story events? Then come by and hear it from the creators themselves! We have everything from writing, artwork, music, voice acting, animation, game design and game development! You can even see some WIP stuff like early concept art!</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Official con event</t>
+        </is>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Microphone(s), Power Strips, Extra Mic for the audience to ask questions</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>ROG Flow x13</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Group of people holding a (PowerPoint?) presentation and taking questions from the audience.</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>m.hahn@awoostria.at</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>ticket_p2m3eS4oAB</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>~10min</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>2025-07-26T19:15:00</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2025-07-26T19:30:00</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2025-07-26T21:00:00</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>2025-07-26T21:15:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Paw Panel</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Frodo, Pencia</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>@Frod0o0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Paw-tastic experience, would recommend</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Want some quality time squishing friends with your paws? Or maybe you'd enjoy some fun little games with other fluffs? Sounds like the perfect place for you!</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Are you a fursuiter, or do you just love paws? Join our Paw Panel for a fun time with fursuiters or enjoy games prepared by the host! The first 30 minutes are reserved for a presentation with some fun little games. After that, the real Paw Panel kicks off, with fursuiters squishing and playing with everyone! We'll also set up a designated zone for cute paw pictures. you wouldn't want to miss that, right?🐾</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Fursuiter-specific, Anxiety-warning, NSFW</t>
+        </is>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>something similar to Cabaret but without tables</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Flipchart, Laptop, Microphone(s), Napkins, Water for fursuiters, fans for fursuiters, straws, and possibly snacks?</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>I'd need help with setting up the microphone as well as the projector, other than that I think I should be fine</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>o.kowalik@awoostria.at</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>ticket_TPWwIKvDlA</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Teardown would last around 5-10 minutes, I'm planning on bringing some cardboard cutouts with me so it's most likely how long it would take</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>2025-07-25T19:30:00</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>2025-07-25T19:45:00</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2025-07-25T22:15:00</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>2025-07-25T22:30:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>QI</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Oolas</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>@Oolas</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Come and put your knowledge to the test in this quiz based on the TV show!</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Did you know fish don't exist, and that humans have 4 nostrils?! Come and join 4 volunteers (picked during the panel) for a quiz where wrong &amp; funny answers will get you points! Or do you dare giving the obvious answer, and risk triggering the dreaded buzzer?</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Maybe Anxiety or Lights, I'm not going to be strobing anything, the buzzer is a white text effect on a black background that blinks rather slowly on screen. As for the themes, I'm not going to (for example) suddenly display a picture of a spider, but preface it properly so people can look away.</t>
+        </is>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Microphone(s), Power Strips</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>ROG Strix G733PYV laptop, 4 single button buzzers with USB cables &amp; a hub</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Quiz moderator and volunteers from audience having wired (USB) buzzers.</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>oostermeijer7@hotmail.com</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>ticket_IxEn1Mh4eR</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>&lt; 5 minutes, just need to plug everything in and give the buzzers a short test, panel can be held without them</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>2025-07-26T16:45:00</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>2025-07-26T17:00:00</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2025-07-26T18:00:00</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>2025-07-26T18:15:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>BAR</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>YOUR FIRST FURRY CONVENTION</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>not sure yet, last year I was alone...</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>@FireDawgAT</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Come here often? Or is it your first time?</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Is this your first time at Awoostria? I guess! But is it also your first Furry Convention? Or are you suiting for your first time? Really? GREAT! So why not join this little shiny panel? Experience our security department on stage! Here you get your questions answered in a furry way. Hear about all the things you should know to have the best time of your life at a Furry Con!</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Is this your first time at Awoostria? I guess! But is it also your first Furry Convention? Or are you suiting for your first time? Really? GREAT! So why not join this little shiny panel? Experience our security department on stage! Here you get your questions answered in a furry way. Hear about all the things you should know to have the best time of your life at a Furry Con!</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>should be right after opening ceremony</t>
+        </is>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Laptop, Microphone(s)</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>I bring a PowerPoint on an USB Stick</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moderator with PowerPoint presentation and volunteers from audience. I bring my PPT on USB. </t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>giefingandi@gmail.com</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>ticket_PGlI7rRdon</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>just thest beamer and PowerPoint in front.. nothing special</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>2025-07-24T19:30:00</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>2025-07-24T19:45:00</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:30:00</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:45:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>WHSPRS LIVE - "Sad, Drunk and Needy Fox Boy"</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>WHSPRS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>@WHSPRS</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>WHSPRS performing songs from his VRChat-inspired album “Sad, Drunk and Needy” together with his band!</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sad, Drunk and Needy: Virtual Reality makes some of us feel like that stronger than ever before. WHSPRS will be performing songs from his VRChat-inspired album “Sad, Drunk and Needy” together with his band, including the VR-scene hit “Fox Boy”! 
+Bring your friends (or enemies)!  </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Noise-warning, Lights-warning</t>
+        </is>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>No seats, concert style. Maybe two rows in the back for people who are not able to stand that long :)</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Rider etc.: https://drive.google.com/drive/folders/1RtySlmjgGU8F_Z7AZaXI0kJKITDKXcvU?usp=sharing</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Band performance, see specs in rider: https://drive.google.com/drive/folders/1RtySlmjgGU8F_Z7AZaXI0kJKITDKXcvU?usp=sharing</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>zeilerlukas96@gmail.com</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>ticket_IZJn1Mh4eR</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Full band setup + soundcheck, so at least 2.5 hours preparation depending on if backline is present and if mic setup is already partly done! Teardown can be done in about an hour depending on setup.</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:00</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:00</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2025-07-26T16:15:00</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>2025-07-26T16:30:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>VRChat Meet &amp; Greet</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Atry, Oposum, Whsprs, KilianDash</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>@AtryFox</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Step out of VR and meet your VRC friends in real life! Laugh, chat, and vibe together—no avatars needed!</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Anxiety-warning</t>
+        </is>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Activity, Empty</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Microphone(s), Projector or something similar, Fans</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Some Lenovo ThinkPad</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KilianDash and I are in Stagecrew, so we would take care of tech during the event (no extra stage shifts needed). </t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>me@benjamin-leuckefeld.de</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>order_k5i0B2KAPj</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>15 minutes setup</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>2025-07-26T16:15:00</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>2025-07-26T16:30:00</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2025-07-26T17:30:00</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>2025-07-26T17:45:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Therians 101: We make Animal Noises</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NoteFox</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>@NoteFox</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>... because being normal was just too boring</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Ever been in a meeting and thought, “Wow, I’d rather be a fox right now”? Welcome to Therianthropy ~</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>This panel is an introduction to why some of us might feel more at home howling at the moon than dealing with paperwork or anything else human related. Whether you're just curious, or already part-time animal, you're welcome to join ~</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Just gonna be a presentation talk n meet, I dunno what to put here</t>
+        </is>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Microphone(s), Just a way to plug my Laptop into an outlet so it doesn't die of a weak charge</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>MacBook Pro 13-inch 2017 (FVFXQ1BJHV27)</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>I might just need help getting the projector running ~ (just in case this thing ain't working)</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>kitsu-geissler@t-online.de</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>ticket_baJqZ7n6dP</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>I dunno, give me the room 5-10 minutes before the start, I just need to put my laptop down, open up the presentation and hope the projector works xD that should be it</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>2025-07-25T09:45:00</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>2025-07-25T10:00:00</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2025-07-25T11:00:00</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>2025-07-25T11:15:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Voices of Austria Q&amp;A</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Spray and Kai - Voices of Austria</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>@TechnicallyKai</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Ask us anything!</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Join the Voices of Austria in this exclusive Q&amp;A. Get to know them in this Panel and ask to your hearts content! 
+Get to know local Artists SprayKitty and TechnicallyKai.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Join the Voices of Austria in this exclusive Q&amp;A. Get to know them in this Panel and ask to your hearts content!
+Get to know local Artists SprayKitty and TechnicallyKai.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Recurring</t>
+        </is>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Flipchart, Microphone(s)</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>It is a Q&amp;A? I don't know :(</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>kolenigkn@gmx.at</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>ticket_iDrEwOJknh</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>2025-07-24T19:00:00</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>2025-07-24T19:15:00</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:00:00</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:15:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>How to Furry Art?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Spray and Kai - Voices of Austria</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>@TechnicallyKai</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Introduction to Furry Art with Spray and Kai</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Join us as we talk about Furry Art in an interactive and fun way!
+Pick up a Pencil and follow us on this magical Journey to "How to Furry Art?", where we try to teach you the basics of Furry Art in our own ways! 
+Who says people need to go to art school to get somewhere? Well we sure don't. Hahaha!</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Join us as we talk about Furry Art in an interactive and fun way!
+Pick up a Pencil and follow us on this magical Journey to "How to Furry Art?", where we try to teach you the basics of Furry Art in our own ways! 
+Who says people need to go to art school to get somewhere? Well we sure don't. Hahaha!</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recurring, We also have a Q&amp;A, </t>
+        </is>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>U-Shape</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Flipchart, Microphone(s), Paper &amp; Pencil</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Spray's HP Laptop (No Specification, no Idea what it is)</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>We will bring our own Laptop, but need respective Equipment to connect Laptop to Projector.</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>kolenigkn@gmx.at</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>ticket_iDrEwOJknh</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>10 Minutes Setup and Teardown due to the Nature of the Panel.</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>2025-07-25T18:15:00</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>2025-07-25T18:30:00</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:00:00</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:15:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Icebreakers of Awoostria</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Minute, Marylinda</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>@Minutecat</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>An ice breaking experience</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Meet fellow attendees, artists, cultists, room-party seekers, and fursuit raid enthusiasts!</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Looking for company? Want to exchange cards or invites but unsure how to start? We've got you covered! Join our friendly icebreaker and kick off your convention adventure surrounded by welcoming faces. Let's break some ice together!</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Artist-specific, Fursuiter-specific, Noise-warning, Anxiety-warning</t>
+        </is>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Flipchart, Laptop, Microphone(s), Paper &amp; Pencil, pin board, pins</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Microphone check</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>m.pornoi@awoostria.at</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>ticket_SjFYLZG462</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Set up pin boards or tables for cards and invitations</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>2025-07-24T19:15:00</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>2025-07-24T19:30:00</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:00:00</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:15:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Witches' Sabbath</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Batty</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>@batty38</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A socialising panel for women only! </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>A place for all women in the fandom to gather, network, mingle and have a good time.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Join the magic rite and get to know other sisters! Let`s share our favourite spells, best potion recipes and exchange powerful sigils (and stickers)! A place for all women in the fandom to gather, network, mingle and have a good time.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Passive</t>
+        </is>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Cabaret</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Flipchart, Laptop, Microphone(s)</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>T470 Thinkpad</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>I have a short powerpoint presentation and will moderate.</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>lusiphur33@gmail.com</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ticket_RBjg6jZNJ8 </t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Placement of seating and tables, preparation of projector for the pp, placement of flipchart. I dont think it will take more than 10 min to prepare.</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>2025-07-25T16:30:00</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>2025-07-25T16:45:00</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2025-07-25T18:15:00</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>2025-07-25T18:30:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Where the Spirits Ride the Wind</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ike Foxbrush, Batty</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>@IkeFox</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Ecstasy, Ritual and Alternate Reality</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Join the circle, follow Shamanic traditions and explore the world of trance rituals and visionary experiences.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Join the circle, follow Shamanic traditions and explore the world of trance rituals and visionary experiences.
+Take on a Ritual Posture and let the drumbeat open a realm of soul journeys, transformations and spirit animals.
+This panel will guide you through a ritual of Ecstatic Trance, as re-discovered by linguist and anthropologist Felicitas Goodman.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Anxiety-warning, Meditative</t>
+        </is>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Empty, requires security at entrance during event to prevent disturbance, requires a barren but appealing, reasonably soundproof room, preferably with seat cushions</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Paper &amp; Pencil, seat cushions (if available)</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>ike.foxbrush@gmail.com</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>ticket_x0UbmlqWN9</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>2025-07-25T12:15:00</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>2025-07-25T12:30:00</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2025-07-25T14:00:00</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>2025-07-25T14:15:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Kemono Meet</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Tenzo</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>@TenzotheTiger</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>A Meet for Japanese/Asian Style Fursuiters and interested People</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>A little Meet for Kemono Fursuiters and interested People.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Interested in Kemono Fursuiters, the Fursuit Style from Japan? Then this little Meet and Greet is for you! Kemono Fursuiters and interested Furs alike are welcome.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Fursuiter-specific</t>
+        </is>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Fish Bowl</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Fans (2x), Water keg.</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Fursuiters meet and get to know some of their fellow Kemono Fursuiters and talk about their experience with the Suit to f.e. those who are interested in getting a Commission from that specific Maker.</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>tenzo.the.tiger@gmail.com</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>ticket_YlwB9CJwBd</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>No extra personal preperation time needed.</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:30:00</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:45:00</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2025-07-26T16:15:00</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>2025-07-26T16:30:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>International Snack Exchange</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Tenzo</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>@TenzotheTiger</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>All the noms you could ask for!</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Share your favorite local snacks and sample the favorites of others.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>The International Snack Exchange is an event where furs bring snacks from their home countries and come together to try out different snacks from around the world. Non shall be leaving this event with an empty belly, but shall have found a new favorite snack from another country.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Anxiety-warning</t>
+        </is>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>U-Shape</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Napkins, Trashbags, paper plates (if possible).</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>People bringing snacks from their country and others trying them out, for that we need some extra tables.</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>tenzo.the.tiger@gmail.com</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>ticket_YlwB9CJwBd</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>around 10-15 minutes of setup &amp; teardown time each, the floor might need to be hoovered afterwards (due to people dropping pieces of food and such).</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>2025-07-25T15:15:00</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>2025-07-25T15:30:00</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2025-07-25T17:30:00</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>2025-07-25T17:45:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Fursuit Charity Striptease</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Vlk</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>@Vex_Wusky</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bring your spare coins and euro bills and enjoy the show! For Charity of course!</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fursuiters will dance and strip for your enjoyment. Enjoy the show and bring some charity money for a very personal experience. </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NSFW</t>
+        </is>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>U-Shape</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Changing room/break area for the suiters at the mainstage. stageteam who will need to set up light and audio. wireless mic (headset/presenter style) for the host. </t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>toiflaaron14@gmail.com</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>ticket_5WjlP7fkvt</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">probably 15 mins setup and teardown. mostlly setting up chairs in a U shape. 
+</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>2025-07-26T17:30:00</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>2025-07-26T17:45:00</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2025-07-26T19:15:00</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>2025-07-26T19:30:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PENT UP PUP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fetch</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>@f3tched</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Live Music Performance</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>*taps ur back* &gt;//&lt; h-hai ych-kun.. iz me pup and I *stims with paws* wanted to invite u to my show.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>*taps ur back* &gt;//&lt; h-hai ych-kun.. its me pent up pup and I *stims with paws* wanted to invite u to my show. *notices u stare and looks away blushing nervously* ermm,, I jus think you'd have a great time dancing along to my tunes about pits and paws n other depraved things is all wrff,,,</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Noise-warning, Lights-warning, Anxiety-warning, Night panel, NSFW</t>
+        </is>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Microphone(s), Power Strips, Speaker system with connections. In ears for monitoring. projector and projector screen for visuals. </t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Focusrite 8i8
+sm58
+Macbook Pro Laptop
+xlr
+2 TRS cables to send audio to house (they are very short cables)</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Me performing on stage. I'm sending audio directly from me to tech crew. I need an additional section for rehearsal. (Setup will be v similar to my Aural alliance performance, I will send clip to Dot as the video is not public)</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>pent.up.pubbi@gmail.com</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>ticket_KG4LvOlnhb</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>30 minutes prep, 30 minutes takedown.
+Sound Testing, projection testing. a table for equipment. an internet connection would also be useful.</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>2025-07-25T17:30:00</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>2025-07-25T18:00:00</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2025-07-25T19:00:00</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>2025-07-25T19:15:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rescue Furs meetup</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>LilNoodles, Snowyboiadam</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>LilNoodles</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>A panel for rescue workers to share experiences, stories, and inspire one another.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Are you a firefighter, police officer, medic, or involved in another rescue field? Whether professional or volunteer, join us to share stories, challenges, and insights. A relaxed space to connect, reflect, and learn!</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Generally a talk based meetup</t>
+        </is>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Cabaret</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Flipchart</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>m.useinov@awoostria.at</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>ticket_CI3mNWDQBz</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>10 min prep drawing on the flipchart</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>2025-07-25T17:45:00</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>2025-07-25T18:00:00</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2025-07-25T19:00:00</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>2025-07-25T19:15:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Event Organizers meet and greet</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>LilNoodles</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>@LilNoodles</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Meet fellow event organizers to share ideas, stories, and inspiration in a casual setting.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Are you a convention chair, event organizer, or curious about how events come to life? Meet others who plan, lead, and create unforgettable experiences. A casual space to exchange ideas, stories, and inspiration!</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Night panel</t>
+        </is>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Flipchart</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>m.useinov@awoostria.at</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>ticket_CI3mNWDQBz</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>no preperations needed</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>2025-07-26T21:00:00</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>2025-07-26T21:15:00</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2025-07-26T22:45:00</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>2025-07-26T23:00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fursuit First Aid 101</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SnowyBoiAdam, LilNoodles</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>@SnowyBoiAdam</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>In this Panel we will go through some of the most important and essential things to keep in mind while fursuiting and how to help a fursuiter in need!</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Fursuiter-specific, Maybe a fan or two, nothing big</t>
+        </is>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Microphone(s)</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>We good :&gt;</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>a.novak@awoostria.at</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>ticket_IGin1Mh4eR</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>10 min</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>2025-07-26T15:00:00</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>2025-07-26T15:15:00</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2025-07-26T16:15:00</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>2025-07-26T16:30:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AVORESTRIA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Polycrow, Maki</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>@polycrow</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>the vore meet</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Meet fellow vorny creatures, listen to our gluttonous gospel, and receive a free pred or prey badge!</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Anxiety-warning, NSFW</t>
+        </is>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Cabaret</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Flipchart, Microphone(s)</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>we're probably just gonna have a short powerpoint presentation and Q&amp;A before letting people interact as they wish</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>dragonletters95@gmail.com</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     ticket_orDdzecPJt</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">should take less than 5 min to set up </t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>2025-07-27T18:00:00</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>2025-07-27T18:15:00</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2025-07-27T19:15:00</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>2025-07-27T19:30:00</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Kookie, Live at Awoostria</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Kookie</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>@SoundsOfKookieTheReal</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Bittersweet Songs from a Trans Puppy Girl</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Heartfelt songs about trans existence, struggles and joy. A handful about society and our place in it. And a silly song about shrimp.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Noise-warning</t>
+        </is>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Concert, Ideally a stage and no chairs</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Microphone(s), PA, mixer, sound tech if possible, microphone stands (2), DI box (1)(I can bring one). </t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Yamaha LL-5 acoustic guitar. AKG p420 microphone and shock mount. Small diaphragm condenser microphone.</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>If possible a sound technician, and a lighting technician (if there is stage lighting)</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>kookie.vrsinger@gmail.com</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>i do not have a ticket</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>I can do setup and tear-down in 5, as long as I got a soundcheck beforehand.</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>2025-07-26T12:45:00</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:00:00</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:00</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>2025-07-24T14:00:00</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>An Introduction to Content Creation!</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>@beetlekurffuzzles</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>How to get started with YouTube, Twitch, TikTok &amp; More!</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Join BetaEtaDelota for an interactive presentation on how to get started with YouTube!</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Have you ever wanted to learn the ropes of being a YouTuber, Twitch Streamer, or Other Content Creator? Join BetaEtaDelota for an interactive presentation on how to get over the first hurdle of becoming a Content Creator: Getting Started! (Pens and Paper will be provided so TAKE NOTES!)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Recurring</t>
+        </is>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Laptop, Paper &amp; Pencil, Small notebooks or handbooks that can be handed / given out to panel attendees (also optionally someone who can record the panel with a camera or phone on a tripod for me)</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>I would need a laptop that I could put my presentation on and have hooked up to the projector to do said presentation on.
+Optional: I would potentially need someone to record or help setup my phone or a camera on a tripod and make sure it's aimed properly at me for the panel (AND ALSO MAKE SURE NO ONE YOINKS OR STEALS IT LOL)</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>benjaminduquette@gmail.com</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>ticket_ULz1h8HaNp</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>5 minutes of teardown (more or less just wrapping things up and getting out of the room so shouldn't be longer than that IF that</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>2025-07-25T09:45:00</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>2025-07-25T10:00:00</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2025-07-25T11:30:00</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>2025-07-25T11:45:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>An Introduction to Content Creation! (Part 2)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>@beetlekurffuzzles</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Not-Your-Average YouTube Panel...</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Join Beta as he talks about the DREADED YouTube Algorithm along with Content Creation as a whole!</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>YouTube &amp; Content Creation as a whole can be TRICKY! With finicky algorithms, trends coming and going so quickly, all while trying to grow an audience can be exhausting and overwhelming! Join Beta in this 2nd (followup to the first) interactive presentation as he discusses these challenges!</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Recurring</t>
+        </is>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Cabaret</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Laptop, Paper &amp; Pencil</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>I would need a laptop that I could put my presentation on and have hooked up to the projector to do said presentation on.
+Optional: I would potentially need someone to record or help setup my phone or a camera on a tripod and make sure it's aimed properly at me for the panel (AND ALSO MAKE SURE NO ONE YOINKS OR STEALS IT LOL)</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>benjaminduquette@gmail.com</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>ticket_ULz1h8HaNp</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>5 minutes of teardown (more or less just wrapping things up and getting out of the room so shouldn't be longer than that IF that</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>2025-07-26T11:30:00</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>2025-07-26T11:45:00</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:15:00</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:30:00</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>W(h)ine with the Chairmans</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>LilNoodles</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>@Vex_Wusky</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>chating, ranting and stories with Noodles and Vex</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Talk with the Chairmans about whatever is on your mind!</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Chill late night chatting with Awoostrias Chairmans. Ever wanted to ask something? Or just give us some feedback? Or just want to hear us rant? Then this is the Panel of your choice!</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Night panel</t>
+        </is>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Flipchart, Laptop, Microphone(s)</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>maybe a powerpoint presentation but not sure at the moment</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>a.toifl@awoostria.at</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>ticket_5WjlP7fkvt</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>max 5 mins</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:30:00</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:45:00</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:45:00</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:00:00</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>MPR</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>The Bebop Lounge</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TBA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>thebeboplounge@gmail.com</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>The Bebop Lounge fuses jazz mastery with anime flair, delivering electrifying, genre-defying performances. Led by Casen Alesi, this elite ensemble has wowed audiences nationwide and abroad, sharing stages with Or3o, CG5, and more. A staple of conventions wanting something fresh and new, they’re redefining nerdcore with bold arrangements and undeniable musical firepower.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>The Bebop Lounge is a genre-bending powerhouse where the elegance of jazz collides with the electric pulse of anime and pop culture. As the longstanding house band of Anime Weekend Atlanta for nearly 20 years, this elite ensemble has built a legendary reputation for high-octane performances that defy musical boundaries. Now reimagined under the visionary leadership of award-winning percussionist, composer, and bandleader Casen Alesi, The Bebop Lounge has entered a bold new era—one that merges virtuosic jazz with the heart of nerdcore.
+With a lineup of the nation’s most exciting young jazz talents, The Bebop Lounge reinvents everything from anime classics to video game soundtracks, transforming nostalgic melodies into genre-fluid, soul-stirring experiences. Their cutting-edge arrangements and magnetic stage presence have placed them at the forefront of the nerd music movement, earning spots alongside acclaimed artists like Or3o, CG5, and The Cowboy Bebop Big Band.
+From coast to coast—Florida to California, New Jersey to Monaco—the group has taken over major conventions with a stylish swagger and sound that’s impossible to ignore. For fans craving something daring, nostalgic, and musically explosive, The Bebop Lounge isn’t just a band. It’s a movement. A vibe. A jazz-fueled revolution.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Noise-warning, Night panel</t>
+        </is>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Intsruments</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>https://7af3642b-5d5a-4bac-be44-09b432b1aa12.filesusr.com/ugd/324951_9f399832ccb345198a664ef8d96d864f.pdf</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>basketcasen13@gmail.com</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Problems on website saying sold out</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>15 minute set up and tear down</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2025-07-24T11:00:00</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>2025-07-24T11:00:00</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CoVahr in Concert</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CoVahr, NoteFox, Solaris, Senpai Seishin</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CoVahr_Fox</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4 furry musicians playing for you</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>With his amazing guests, CoVahr invites you to an instrumental concert featuring music from well-known video games, Studio Ghibli/anime films, and timeless classical favorites.
+Including - Senpai on flute, Solaris on violin, NoteFox on accordion, and “not a weird cat” CoVahr on piano. All performers play at a (semi-)professional level, typically dressed in suits!</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Enjoy live played music by furries. With his amazing guests, CoVahr invites you to an instrumental concert featuring music from well-known video games, Studio Ghibli/anime films, and timeless classical favorites. Including - Senpai on flute, Solaris on violin, NoteFox on accordion, and “not a weird cat” CoVahr on piano. All performers play at a (semi-)professional level, typically dressed in suits!</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Fursuiter-specific, would require a piano!</t>
+        </is>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Theater, Fish Bowl</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Microphone(s)</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>We play live music and wil stand around the piano</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>covahr@gmx.de</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>ticket_LsIRVpXzrl</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>would need a short practice and sound check session</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>2025-07-24T14:45:00</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>2025-07-24T15:00:00</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2025-07-24T16:30:00</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>2025-07-24T16:45:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mahjong – Learn &amp; Play</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Blujay, Viper</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>@BlujayFox</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>An introduction to Riichi Mahjong</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Come and learn the Japanese version of mahjong for four players! The session will begin with a short introduction on how to play the game, followed by the chance to play some hands.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>None of the above</t>
+        </is>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Cabaret</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>MacBook Pro (2015)</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Keynote presentation followed by board game play</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>blujayfox@gmail.com</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>ticket_Zfko6r2wgU</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Need up to 20 minutes to set up the tiles on all the tables.
+Tear-down is much quicker.</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>2025-07-24T19:30:00</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:00:00</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:30:00</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:45:00</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Deep Paws</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Operator Burstup</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>@burstup</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>A chilled, immersive Dub Techno live show that invites furries to move their paws and sink into the groove.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Deep, fuzzy Dub Techno vibes – live on one instrument only! Relax, drift, and let the groove take over.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Take a moment to slow down, breathe deep, and drift into a sea of echoing textures and warm, rolling bass. Deep Paws is a one-hour live Dub Techno experience, performed entirely on a single instrument – the Roland MC-707 groovebox.
+Expect hypnotic rhythms, spacious delays, and deep, fuzzy grooves designed to ground you in the moment while your mind floats freely. Whether you’re lounging with friends, swaying to the beat, or just letting the vibes wash over you, this set invites you to sink into the groove and let the world melt away.
+Relax. Unwind. Dance. Let the pulse of Deep Paws carry you home.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Noise-warning, Lights-warning</t>
+        </is>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Roland MC-707 synthesizer (groovebox)</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Audio engineer for soundcheck and during the show (main mixing desk), 
+Lighting appropriate for an electronic music concert </t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>burstup@gmail.com</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>ticket_FNLGkSGlKi</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Audio setup and soundcheck: 30 minutes</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>2025-07-25T16:15:00</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>2025-07-25T16:30:00</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2025-07-25T17:30:00</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>2025-07-25T17:45:00</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>VJ'ing A-Z</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Oskar</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>@oskarjst</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Let's mash buttons and see what happens</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Ever wondered how live video mixing works? We got you covered :) Let's prepare a show together and perform it live!</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Resolume break course from empty screen to full show. Starting from basic theory and finishing with practical lesson. </t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Noise-warning, Lights-warning, Epilepsy warning</t>
+        </is>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" t="b">
+        <v>0</v>
+      </c>
+      <c r="O41" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>I'll arrange it myself with tables, tv's, equipment etc</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Power Strips</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Resolume server, midi controllers, cables and extenders. I'd like to keep the dance setup on stage for my panel.</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>I'll take care of it myself :)</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>oskarjst@gmail.com</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>ticket_pYi3eS4oAB</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>15-20 minutes prep</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>2025-07-25T09:30:00</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>2025-07-25T10:00:00</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2025-07-25T12:00:00</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>2025-07-25T12:30:00</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Tales from an art school graduate</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Coco Houseplant</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>@CoconutHouseplant</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">and how to work on a subject. </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Want to study art, or go to an art school? Lets talk about it! 
+This panel would like to show you the experience of a graduate of a small art school. What to look out for when choosing a university/academy? How do you find your style and your subject? What mistakes should you avoid, and of course, some beawares! </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Want to study art, or go to an art school? Lets talk about it! 
+This panel would like to show you the experience of a graduate of a small art school. What to look out for when choosing a university/academy? How do you find your style and your subject? What mistakes should you avoid?
+What do you need to make a proper final exibit? Do you struggle with inspiration and choosing your subject? How do you find your spark? And lot's more of course!
+Look at some of the works of a graduate and have a conversation about art, university and difficulties with studying art. 
+</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Artist-specific, Anxiety-warning</t>
+        </is>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Exhibit</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Flipchart, Laptop</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Discussion involving the audience. Audience can move around tables to look at visual examples I provide for the panel. Moderator presents useful bulletpoints on the flipchart.
+I would like to accompany my physical paintings with a powerpoint with additional visual examples and details. The powerpoint would feature High-res images of my work, and photographs of my process, as such the file may be larger that usual.  </t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>viki.hofer28@googlemail.com</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>ticket_WPQ9TuoOFb</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 - 10 minutes is sufficient. </t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Trip to DEFQON.1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Sorajona, Loren Aster</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>@Sorajona, Amy.wolf@gmx.at</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Second Edition</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>In the second edition of Trip to DEFQON.1, Sorajona aka DJ Backstage Warrior introduces you once again to the biggest harder styles festival in Europe. You'll be challenged to fun crowd control activities (circle pit for example), so listen to your DJ and shake off your furbutts.
+Join the madness if you're brave enough!</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Welcome to the second edition of TRIP TO DEFQON.1
+Here you will be brought closer to the nature of harder electronic music. DEFQON.1 is the biggest hardstyle festival in Europe, and DJ Backstage Warrior's mission is to touch your heart and awaken the hardstyle warrior in you.
+Take part in exciting crowd control activities (circle pit for example) and get to know more about the festival! So listen to your DJ and shake off your furbutts....
+Join the madness if you're brave enough!</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Fursuiter-specific, Noise-warning, Lights-warning, Anxiety-warning, Please just make sure if fursuiters dance that they don't overheat (please prepare big fans)</t>
+        </is>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Empty, I need a table on the stage like last year, and a tech, light, camera team</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Microphone(s), Power Strips, Please provide big fans for the Fursuiters. It will be a similar setup like last year's trip to defqon.1</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Pioneer DDJ FLX-4 (I'll need a converter again), my laptop</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>I will be a DJ on stage, teaching them about the festival and electronical music, and I will motivate the people to socially interact with each other. So that means, they will dance to my music. I need a microphone to speak to the people. It needs to be tested before the start, and I will need a light technician. You can kinda imagine it like a Furdance but different. It would be cool if it gets recorded by your team again.</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>kryver@gmx.at</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>ticket_eWu5LNEga4</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>I'll need 30 minutes prepare time, and 10-20 minutes teardown time.</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guest of Honor QnA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>@BeetleKurffuzzles</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>The proper term is "Meet &amp; Greet* I think...</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Meet the Guest of Honor BetaEtaDelota and ask him questions in a QnA!</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Meet the Guest of Honor BetaEtaDelota and partake in a QnA where you can ask him questions about content creation, about his background in engineering, or whatever question you would like him to answer! </t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Passive</t>
+        </is>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Theater, Cabaret</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Microphone(s), Camera for recording the panel potentially!</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Nothing needed here, just a simple QnA and discussion room!</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>benjaminduquette@gmail.com</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>ticket_ULz1h8HaNp</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Blood On The Clocktower</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Pur3Bolt</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>@Pur3Bolt</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>A social deduction and bluffing game</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>This is a social deduction game, similar to Werewolves, Town of Salem, or Mafia... but better!</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>During a hellish thunderstorm, a scream echoes through the town of Ravenswood Bluff. The townsfolk find that the storyteller has been murdered, their body hanging limp from the clock tower. A realisation slowly dawns… a demon has been unleashed, killing by night and taking on human form by day.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Recurring, Passive</t>
+        </is>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Fish Bowl, Empty</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Paper &amp; Pencil</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>No support needed</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>matevz.spacapan@gmail.com</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>ticket_8oYQZdforF</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>10m each</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>iRacing For Furs</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Lucky</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>@Absolute_Luck</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>to Enter the World of Sim Racing</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>If you're a petrolhead fur or looking to getting into sim racing, this panel is the perfect choice.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Recurring</t>
+        </is>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Laptop, Microphone(s)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>For the presentation, my own Moza R5 wheelbase and wheel.</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>I don't have a laptop, so I would need to send the finished files over.</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>sheperd1031@gmail.com</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>ticket_GUUxF8fNG6</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Prep and teardown, 5 minutes maximum.</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>2025-07-24T10:00:00</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Opening Ceremony</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Awoostria</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>The official opening ceremony</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>2025-07-24T16:00:00</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>2025-07-24T17:00:00</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2025-07-24T19:00:00</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>2025-07-24T19:15:00</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Streaming OpCer</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Awoostria</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Live stream of the opening ceremony</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>2025-07-24T16:45:00</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>2025-07-24T17:00:00</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2025-07-24T19:00:00</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>2025-07-24T19:15:00</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Closing Ceremony</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Awoostria</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>2025-07-27T14:00:00</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>2025-07-27T15:00:00</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2025-07-27T17:00:00</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>2025-07-27T17:15:00</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Streaming CloCer</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Awoostria</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>2025-07-27T14:45:00</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>2025-07-27T15:00:00</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2025-07-27T17:00:00</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>2025-07-27T17:15:00</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Crew Briefing</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Awoostria</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>2025-07-24T08:00:00</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>2025-07-24T08:00:00</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2025-07-24T09:00:00</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>2025-07-24T09:00:00</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Thursday Party</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Awoostria</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:45:00</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:30:00</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2025-07-25T03:00:00</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>2025-07-25T03:15:00</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Petplay Social</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>2025-07-25T19:30:00</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>2025-07-25T19:30:00</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2025-07-25T21:00:00</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>2025-07-25T21:00:00</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Friday Party</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Awoostria</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:45:00</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>2025-07-25T21:00:00</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2025-07-26T03:00:00</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>2025-07-26T03:15:00</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Saturday Party</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Awoostria</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+      <c r="O55" t="b">
+        <v>0</v>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>2025-07-26T22:15:00</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>2025-07-26T22:30:00</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2025-07-27T03:00:00</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>2025-07-27T03:15:00</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Fursit Dance Competition</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Awoostria</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" t="b">
+        <v>0</v>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>2025-07-27T11:30:00</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>2025-07-27T12:30:00</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2025-07-27T14:00:00</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>2025-07-27T14:30:00</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Crew Debriefing</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Awoostria</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="b">
+        <v>0</v>
+      </c>
+      <c r="O57" t="b">
+        <v>0</v>
+      </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>2025-07-27T17:15:00</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>2025-07-27T17:15:00</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2025-07-27T18:15:00</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>2025-07-27T18:15:00</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Dead Dog Party</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Awoostria</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="b">
+        <v>0</v>
+      </c>
+      <c r="O58" t="b">
+        <v>0</v>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>2025-07-27T18:30:00</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>2025-07-27T19:00:00</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2025-07-28T03:00:00</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>2025-07-28T03:15:00</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ58" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/events.xlsx
+++ b/events.xlsx
@@ -6005,7 +6005,11 @@
         </is>
       </c>
       <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
